--- a/xlsx/总经理_intext.xlsx
+++ b/xlsx/总经理_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>总经理</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>總裁</t>
+    <t>总裁</t>
   </si>
   <si>
     <t>政策_政策_管理_总经理</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E8%A1%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>執行長</t>
+    <t>执行长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%A9%E5%86%99</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B0%8F%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>中小企業</t>
+    <t>中小企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E7%BB%87_(%E7%A4%BE%E4%BC%9A%E5%AD%A6)</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>董事長</t>
+    <t>董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9B%BD%E4%BC%81%E4%B8%9A</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>董事會</t>
+    <t>董事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%82%AD</t>
   </si>
   <si>
-    <t>僱傭</t>
+    <t>僱佣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E7%B4%84</t>
   </si>
   <si>
-    <t>合約</t>
+    <t>合约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E9%95%B7</t>
   </si>
   <si>
-    <t>社長</t>
+    <t>社长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E9%95%B7</t>
   </si>
   <si>
-    <t>會長</t>
+    <t>会长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E6%9C%83%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>董事會主席</t>
+    <t>董事会主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E5%B1%80%E4%B8%BB%E5%B8%AD</t>
@@ -149,15 +149,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>行政總裁</t>
+    <t>行政总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>總經理</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%A7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
   </si>
   <si>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BA%8B%E7%B8%BD%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>董事總經理</t>
+    <t>董事总经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E5%91%98</t>
@@ -185,25 +182,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>經理</t>
+    <t>经理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E8%91%A3%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>副董事長</t>
+    <t>副董事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>股東大會</t>
+    <t>股东大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%9F%B7%E8%A1%8C%E8%91%A3%E4%BA%8B</t>
   </si>
   <si>
-    <t>非執行董事</t>
+    <t>非执行董事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E7%AB%8B%E8%91%A3%E4%BA%8B</t>
@@ -215,13 +212,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A3%E5%AF%9F%E4%BA%BA</t>
   </si>
   <si>
-    <t>監察人</t>
+    <t>监察人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%B8%BD%E8%A3%81</t>
   </si>
   <si>
-    <t>副總裁</t>
+    <t>副总裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E4%BC%9A</t>
@@ -239,31 +236,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E4%BA%8B%E9%95%B7</t>
   </si>
   <si>
-    <t>理事長</t>
+    <t>理事长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E7%A7%98%E6%9B%B8</t>
   </si>
   <si>
-    <t>公司秘書</t>
+    <t>公司秘书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C%E9%95%B7</t>
   </si>
   <si>
-    <t>品牌長</t>
+    <t>品牌长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%89%A7%E8%A1%8C%E5%AE%98</t>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%8B%99%E9%95%B7</t>
   </si>
   <si>
-    <t>財務長</t>
+    <t>财务长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>資訊總監</t>
+    <t>资讯总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E4%B8%BB%E7%AE%A1</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E9%95%B7</t>
   </si>
   <si>
-    <t>行銷長</t>
+    <t>行销长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E8%BF%90%E8%90%A5%E5%AE%98</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E6%84%8F%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>創意總監</t>
+    <t>创意总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%B8%AD%E6%8A%80%E6%9C%AF%E5%AE%98</t>
@@ -347,7 +344,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%A8%88%E9%83%A8</t>
   </si>
   <si>
-    <t>審計部</t>
+    <t>审计部</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1353,7 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>25</v>
@@ -1382,10 +1379,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>4</v>
@@ -1411,10 +1408,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1440,10 +1437,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1469,10 +1466,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1498,10 +1495,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>28</v>
@@ -1527,10 +1524,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1556,10 +1553,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1585,10 +1582,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1614,10 +1611,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1643,10 +1640,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1672,10 +1669,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1701,10 +1698,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1730,10 +1727,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -1759,10 +1756,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1788,10 +1785,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1817,10 +1814,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1846,10 +1843,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1875,10 +1872,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1904,10 +1901,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1933,10 +1930,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1962,10 +1959,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1991,10 +1988,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2020,10 +2017,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2049,10 +2046,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2078,10 +2075,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2107,10 +2104,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2136,10 +2133,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2165,10 +2162,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2194,10 +2191,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2223,10 +2220,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" t="s">
         <v>99</v>
-      </c>
-      <c r="F53" t="s">
-        <v>100</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2252,10 +2249,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
         <v>99</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2281,10 +2278,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
         <v>101</v>
-      </c>
-      <c r="F55" t="s">
-        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2310,10 +2307,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
         <v>103</v>
-      </c>
-      <c r="F56" t="s">
-        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2339,10 +2336,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" t="s">
         <v>105</v>
-      </c>
-      <c r="F57" t="s">
-        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2368,10 +2365,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" t="s">
         <v>107</v>
-      </c>
-      <c r="F58" t="s">
-        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2397,10 +2394,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" t="s">
         <v>109</v>
-      </c>
-      <c r="F59" t="s">
-        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
